--- a/biology/Zoologie/Gephyromantis_webbi/Gephyromantis_webbi.xlsx
+++ b/biology/Zoologie/Gephyromantis_webbi/Gephyromantis_webbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis webbi est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis webbi est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 100 m d'altitude dans la baie d'Antongil ainsi que sur l'île de Nosy Mangabe[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 100 m d'altitude dans la baie d'Antongil ainsi que sur l'île de Nosy Mangabe,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis webbi mesure environ de 22 à 28 mm pour les mâles et de 28 à 33 mm pour les femelles. Son dos, vert avec des taches sombres de forme irrégulière et deux ou trois bandes transversales foncées, lui donne l'aspect d'une pierre recouverte de mousse et lui assure un camouflage vis-à-vis de ses prédateurs. Son ventre est blanchâtre ; sa gorge présente quelques taches de couleur foncée. Ses pattes arrière sont barrées de sombre. La peau de son dos est légèrement granuleuse. Les mâles ont des glandes fémorales et une paire de sacs vocaux de couleur blanche[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis webbi mesure environ de 22 à 28 mm pour les mâles et de 28 à 33 mm pour les femelles. Son dos, vert avec des taches sombres de forme irrégulière et deux ou trois bandes transversales foncées, lui donne l'aspect d'une pierre recouverte de mousse et lui assure un camouflage vis-à-vis de ses prédateurs. Son ventre est blanchâtre ; sa gorge présente quelques taches de couleur foncée. Ses pattes arrière sont barrées de sombre. La peau de son dos est légèrement granuleuse. Les mâles ont des glandes fémorales et une paire de sacs vocaux de couleur blanche.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cecil Stanley Webb (1895-)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cecil Stanley Webb (1895-).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grandison, 1953 : A new species of rhacophorid frog from Madagascar. Annals and Magazine of Natural History, sér. 12, vol. 6, p. 855-856.</t>
         </is>
